--- a/data/describe/few_shot_QandA.xlsx
+++ b/data/describe/few_shot_QandA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\datomatisation\datomatisation-dev\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA46E07-3130-4D7C-8346-2D960317FC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38356003-8F9E-4BC2-A1E2-8FEDF97A622B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37560" yWindow="2700" windowWidth="21090" windowHeight="16995" xr2:uid="{75A2F0CC-120C-46DD-B882-D3F79246B1DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{75A2F0CC-120C-46DD-B882-D3F79246B1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>User</t>
   </si>
@@ -45,22 +45,40 @@
     <t>Assistant</t>
   </si>
   <si>
-    <t xml:space="preserve"> reserved vs conversational</t>
-  </si>
-  <si>
-    <t>relaxed vs imaginative</t>
-  </si>
-  <si>
-    <t>neglectful vs diligent</t>
-  </si>
-  <si>
-    <t>[{"Question": "What does it mean when someone is described as relaxed?",  "Answer": "When someone is described as relaxed, it means they are calm, free from tension, anxiety, or worry, and generally at ease in their demeanor and approach to life."}, {"Question": "What does it mean when someone is described as imaginative", "Answer": "When someone is described as imaginative, it means they have a strong ability to form new ideas, images, or concepts in their mind that are not present to their senses."}]</t>
-  </si>
-  <si>
-    <t>[{"Question": "What does it mean when someone is described as neglectful" ,  "Answer": "When someone is described as neglectful, it means they are failing to properly care for, pay attention to, or provide for someone or something they are responsible for."}, {"Question": "What does it mean when someone is described as diligent", "Answer": "When someone is described as diligent, it means they are hardworking, careful, and persistent in their efforts or work."}]</t>
-  </si>
-  <si>
-    <t>[{"Question": "What does it mean when someone is described as reserved?",  "Answer": "Someone who is shy, quiet, or keeps their feelings to thems"}, {"Question": "What does it mean when someone is described as  conversational?", "Answer": "When someone is described as conversational, it generally means they are easy to talk to and good at engaging in conversation."}]</t>
+    <t xml:space="preserve"> reserved</t>
+  </si>
+  <si>
+    <t>conversational</t>
+  </si>
+  <si>
+    <t>Question: What does it mean when someone is described as reserved?  Answer: Someone who is shy, quiet, or keeps their feelings to thems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Question: What does it mean when someone is described as  conversational? Answer: When someone is described as conversational, it generally means they are easy to talk to and good at engaging in conversation.</t>
+  </si>
+  <si>
+    <t>relaxed</t>
+  </si>
+  <si>
+    <t>imaginative</t>
+  </si>
+  <si>
+    <t>Question: What does it mean when someone is described as relaxed? Answer: When someone is described as relaxed, it means they are calm, free from tension, anxiety, or worry, and generally at ease in their demeanor and approach to life.</t>
+  </si>
+  <si>
+    <t>Question: What does it mean when someone is described as imaginative? Answer: When someone is described as imaginative, it means they have a strong ability to form new ideas, images, or concepts in their mind that are not present to their senses.</t>
+  </si>
+  <si>
+    <t>diligent</t>
+  </si>
+  <si>
+    <t>neglectful</t>
+  </si>
+  <si>
+    <t>Question: What does it mean when someone is described as neglectful? Answer: When someone is described as neglectful, it means they are failing to properly care for, pay attention to, or provide for someone or something they are responsible for.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Question: What does it mean when someone is described as diligent? Answer: When someone is described as diligent, it means they are hardworking, careful, and persistent in their efforts or work.</t>
   </si>
 </sst>
 </file>
@@ -101,13 +119,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A39C770-6B8C-4FC7-97FD-94B205744AFD}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,37 +464,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="176" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="154" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="176" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="140" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="176" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="84" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="70" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="70" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/describe/few_shot_QandA.xlsx
+++ b/data/describe/few_shot_QandA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\datomatisation\datomatisation-dev\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38356003-8F9E-4BC2-A1E2-8FEDF97A622B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DBA608-B2AC-492D-B0EB-94D268822CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{75A2F0CC-120C-46DD-B882-D3F79246B1DD}"/>
+    <workbookView xWindow="40185" yWindow="2985" windowWidth="38700" windowHeight="15225" xr2:uid="{75A2F0CC-120C-46DD-B882-D3F79246B1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,40 +45,40 @@
     <t>Assistant</t>
   </si>
   <si>
-    <t xml:space="preserve"> reserved</t>
-  </si>
-  <si>
-    <t>conversational</t>
-  </si>
-  <si>
-    <t>Question: What does it mean when someone is described as reserved?  Answer: Someone who is shy, quiet, or keeps their feelings to thems</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Question: What does it mean when someone is described as  conversational? Answer: When someone is described as conversational, it generally means they are easy to talk to and good at engaging in conversation.</t>
-  </si>
-  <si>
-    <t>relaxed</t>
-  </si>
-  <si>
-    <t>imaginative</t>
-  </si>
-  <si>
-    <t>Question: What does it mean when someone is described as relaxed? Answer: When someone is described as relaxed, it means they are calm, free from tension, anxiety, or worry, and generally at ease in their demeanor and approach to life.</t>
-  </si>
-  <si>
-    <t>Question: What does it mean when someone is described as imaginative? Answer: When someone is described as imaginative, it means they have a strong ability to form new ideas, images, or concepts in their mind that are not present to their senses.</t>
-  </si>
-  <si>
-    <t>diligent</t>
-  </si>
-  <si>
-    <t>neglectful</t>
-  </si>
-  <si>
-    <t>Question: What does it mean when someone is described as neglectful? Answer: When someone is described as neglectful, it means they are failing to properly care for, pay attention to, or provide for someone or something they are responsible for.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Question: What does it mean when someone is described as diligent? Answer: When someone is described as diligent, it means they are hardworking, careful, and persistent in their efforts or work.</t>
+    <t xml:space="preserve"> What does it mean when someone is described as reserved?</t>
+  </si>
+  <si>
+    <t>Someone who is shy, quiet, or keeps their feelings to thems</t>
+  </si>
+  <si>
+    <t>What does it mean when someone is described as  conversational?</t>
+  </si>
+  <si>
+    <t>When someone is described as conversational, it generally means they are easy to talk to and good at engaging in conversation.</t>
+  </si>
+  <si>
+    <t>When someone is described as relaxed, it means they are calm, free from tension, anxiety, or worry, and generally at ease in their demeanor and approach to life.</t>
+  </si>
+  <si>
+    <t>What does it mean when someone is described as relaxed?</t>
+  </si>
+  <si>
+    <t>When someone is described as imaginative, it means they have a strong ability to form new ideas, images, or concepts in their mind that are not present to their senses.</t>
+  </si>
+  <si>
+    <t>What does it mean when someone is described as imaginative?</t>
+  </si>
+  <si>
+    <t>When someone is described as neglectful, it means they are failing to properly care for, pay attention to, or provide for someone or something they are responsible for.</t>
+  </si>
+  <si>
+    <t>What does it mean when someone is described as neglectful?</t>
+  </si>
+  <si>
+    <t>When someone is described as diligent, it means they are hardworking, careful, and persistent in their efforts or work.</t>
+  </si>
+  <si>
+    <t>What does it mean when someone is described as diligent?</t>
   </si>
 </sst>
 </file>
@@ -447,12 +447,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.26953125" customWidth="1"/>
+    <col min="1" max="1" width="61.26953125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,52 +464,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="176" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="176" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="56" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="84" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="70" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="56" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="70" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">

--- a/data/describe/few_shot_QandA.xlsx
+++ b/data/describe/few_shot_QandA.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>User</t>
   </si>
@@ -24,7 +24,15 @@
 Now tell me, what does it mean when an entity is described as extraverted?</t>
   </si>
   <si>
-    <t>An extraverted person is a social butterfly: effortlessly starting and engaging in conversations at parties and exuding confidence around others. This is a stark to introverted individuals, who like to stay in the background, saying very little and no desire to engage in constant chatter.</t>
+    <t>An extraverted person is a social butterfly: effortlessly starting and engaging in conversations at parties and exuding confidence around others. This is a stark contrast to introverted individuals, who like to stay in the background, saying very little and having no desire to engage in constant chatter.</t>
+  </si>
+  <si>
+    <t>The name of the factor is: engaged vs detached. 
+It was based on the following description: The factor is very strongly positively associated with the feature that Are you an active member, inactive member, or not a member of a sport or recreational organization?, very strongly positively associated with the feature that Are you an active member, inactive member, or not a member of another type of organization?, strongly positively associated with the feature that Are you an active member, inactive member, or not a member of an art, music, or educational organization?, strongly positively associated with the feature that Are you an active member, inactive member, or not a member of a consumer organization?, strongly positively associated with the feature that Are you an active member, inactive member, or not a member of a labor union?. The factor is very strongly negatively associated with the feature that How frequently does alcohol consumption in the streets occur in your neighborhood?, very strongly negatively associated with the feature that Please tell me for the following statement how essential you think it is as a characteristic of democracy: Governments tax the rich and subsidize the poor., very strongly negatively associated with the feature that Have you been the victim of a crime during the past year?, strongly negatively associated with the feature that Has someone in your immediate family been the victim of a crime during the past year?, strongly negatively associated with the feature that Do you agree that science and technology will provide more opportunities for the next generation?. 
+Now tell me, what does it mean when a country is described as detached?</t>
+  </si>
+  <si>
+    <t>The citizens of a country can be described as detached when they or their families experience crime and/or they feel that neither science or government help them. They are unlike the citizens of countries who are more engaged in community life and become members of sporting and political organisations.</t>
   </si>
 </sst>
 </file>
@@ -99,7 +107,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -114,6 +122,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1202,9 +1213,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="59.5" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" ht="299.55" customHeight="1">
+      <c r="A3" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="5">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1238,8 +1253,8 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="14.5" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
